--- a/AnalizPdvBundle/Resources/templateAnaliz/AnalizPDV_Out_INN.xlsx
+++ b/AnalizPdvBundle/Resources/templateAnaliz/AnalizPDV_Out_INN.xlsx
@@ -2,20 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OpenServer525\domains\AnalizPDV\web\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OpenServer525\domains\AnalizPDV\src\AnalizPdvBundle\Resources\templateAnaliz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1860" windowWidth="19200" windowHeight="10215" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="5580" windowWidth="19200" windowHeight="10215"/>
   </bookViews>
   <sheets>
     <sheet name="read me" sheetId="4" r:id="rId1"/>
-    <sheet name="Out_reestr=erpn" sheetId="1" r:id="rId2"/>
-    <sheet name="Out_reestr&lt;&gt;erpn" sheetId="3" r:id="rId3"/>
-    <sheet name="Out_erpn&lt;&gt;reestr" sheetId="2" r:id="rId4"/>
+    <sheet name="Out_R=E" sheetId="1" r:id="rId2"/>
+    <sheet name="Out_R=E DocByR" sheetId="5" r:id="rId3"/>
+    <sheet name="Out_R=E DocByE" sheetId="6" r:id="rId4"/>
+    <sheet name="Out_R&lt;&gt;E" sheetId="3" r:id="rId5"/>
+    <sheet name="Out_R&lt;&gt;E DocByR" sheetId="8" r:id="rId6"/>
+    <sheet name="Out_E&lt;&gt;R" sheetId="2" r:id="rId7"/>
+    <sheet name="Out_E&lt;&gt;R DocByE" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +36,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
   <si>
     <t>месяц</t>
   </si>
@@ -69,9 +73,6 @@
     <t xml:space="preserve">год </t>
   </si>
   <si>
-    <t>№ филиала</t>
-  </si>
-  <si>
     <t>ИНН</t>
   </si>
   <si>
@@ -87,12 +88,6 @@
     <t>Сальдо ПДВ (ЕРПН-Реестр)</t>
   </si>
   <si>
-    <t xml:space="preserve">Проверка налоговых обязательств в разрезе ИНН. Суммы ПДВ по ИПН которые есть в ЕРПН но нет в  Реестре </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проверка налоговых обязательств в разрезе ИНН. Суммы ПДВ по ИПН которые есть и в ЕРПН и в Реестре </t>
-  </si>
-  <si>
     <t>по данным Реесстра</t>
   </si>
   <si>
@@ -117,13 +112,6 @@
     <t>Правильность  и полноту формирования ПДВ по налоговым обязательствам в разрезе ИНН .</t>
   </si>
   <si>
-    <t>Имеют место ошибки с неверным указанием номера, даты создания и типа налоговых накладных (расчетов корректировки)
-Цель данного анализа сравнить право (данные ЕРПН) и факт (даннные Реестров) на налоговые обязательства в разрезе покупателей (ИНН)</t>
-  </si>
-  <si>
-    <t>Если по филиалу есть не нулевые суммы по столбцу "Сальдо ПДВ (ЕРПН-Реестр)", следовательно предприятие ошиблось в формировании налоговых обязательств. Для виявления НН по которым есть ошибки надо открыть файл анализа Реестров "AnalizPDV_All month (номер месяца) year (номер года) numBranch (номер филиала)" в вкладках "Out_reestr=edrpu" и "Out_reestr&lt;&gt;edrpou" отфильтровать документы по столбцу "ИНН клиента".</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Проверка налоговых обязательств в разрезе ИНН. Суммы ПДВ по ИПН которые есть в ЕРПН но нет в  Реестре </t>
   </si>
   <si>
@@ -131,9 +119,6 @@
   </si>
   <si>
     <t>Если по филиалу есть не нулевые суммы по столбцу "Сальдо ПДВ (ЕРПН-Реестр)", следовательно предприятие ошиблось в формировании налоговых обязательств. Для виявления НН по которым есть ошибки надо открыть файл анализа Реестров "AnalizPDV_All month (номер месяца) year (номер года) numBranch (номер филиала)" в вкладке "Out_reestr&lt;&gt;edrpou" отфильтровать документы по столбцу "ИНН клиента".</t>
-  </si>
-  <si>
-    <t>Out_reestr=erpn</t>
   </si>
   <si>
     <t>Out_reestr&lt;&gt;erpn</t>
@@ -157,13 +142,89 @@
     <t>Выделить столбец с ИНН
 нажать правую клавишу мышки и выбрать "Формат ячеек" 
 В окне выбрать вкладку "Число" и формат ячеек "Числовой" - выбираем число десятичных знаков = 0 и снимаем галочку и "Разделитель групп розрядов"</t>
+  </si>
+  <si>
+    <t>по данным ЕРПН (право)</t>
+  </si>
+  <si>
+    <t>По данным реестра (факт)</t>
+  </si>
+  <si>
+    <t>In_R=E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка налоговому кредиту в разрезе ИНН. Суммы ПДВ по ИПН которые есть и в ЕРПН и в Реестре </t>
+  </si>
+  <si>
+    <t>Правильность  и полноту формирования ПДВ по налоговому кредиту в разрезе ИНН .</t>
+  </si>
+  <si>
+    <t>месяц реестра</t>
+  </si>
+  <si>
+    <t xml:space="preserve">год реестра </t>
+  </si>
+  <si>
+    <t>Номер филила</t>
+  </si>
+  <si>
+    <t>Дата создания НН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Номер НН </t>
+  </si>
+  <si>
+    <t>Тип НН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование клиента </t>
+  </si>
+  <si>
+    <t>ИНН клиента</t>
+  </si>
+  <si>
+    <t>ПДВ по НН, грн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка налогового кредите  в разрезе ИНН. Суммы ПДВ по ИПН которые есть и в ЕРПН и в Реестре. Документы с реестров по которым есть расхождения </t>
+  </si>
+  <si>
+    <t>In_R=E DocByR</t>
+  </si>
+  <si>
+    <t>Номер НН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование покупателя </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка налоговых обязательств  в разрезе ИНН. Суммы ПДВ по ИПН которые есть и в ЕРПН и в Реестре </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка налоговых обязательств  в разрезе ИНН. Суммы ПДВ по ИПН которые есть и в ЕРПН и в Реестре. Документы с реестров по которым есть расхождения </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка налоговых обязательств  в разрезе ИНН. Суммы ПДВ по ИПН которые есть и в ЕРПН и в Реестре. Документы с ЕРПН по которым есть расхождения </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка налоговых обязательств в разрезе ИНН. Суммы ПДВ по ИПН которые есть в  Реестре но нет в ЕРПН. Документы с реестров по которым есть расхождения </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка налоговых обязательств в разрезе ИНН. Суммы ПДВ по ИПН которые есть в ЕРПН но нет в  Реестре </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка налоговых обязательств в разрезе ИНН. Суммы ПДВ по ИПН которые есть в ЕРПН но нет в  Реестре. Документы с ЕРПН по которым есть расхождения </t>
+  </si>
+  <si>
+    <t>Имеют место ошибки с неверным указанием номера, даты создания и типа налоговых накладных (расчетов корректировки)
+Цель данного анализа сравнить право (данные ЕРПН) и факт (даннные Реестров) на налоговые обязательства в разрезе покупателей (ИНН)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,16 +265,28 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8.25"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -282,11 +355,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -301,6 +398,69 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -310,6 +470,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -319,41 +488,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -634,156 +771,165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" style="16" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="A1" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="A2" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="19" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="7" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-    </row>
-    <row r="9" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="20"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="20"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="23"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.35" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -792,82 +938,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <sheetPr codeName="Лист2">
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="7" width="23.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="35"/>
+      <c r="E2" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="35"/>
+      <c r="G2" s="37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="11"/>
+        <v>26</v>
+      </c>
+      <c r="G3" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:H1"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -877,75 +1020,68 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <sheetPr codeName="Лист3">
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="6" width="23.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="1" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="23" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="11"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:G3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -953,75 +1089,315 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <sheetPr codeName="Лист4">
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="6" width="23.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" customWidth="1"/>
+    <col min="8" max="9" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+    </row>
+    <row r="2" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист7"/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="32" style="23" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="11" t="s">
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="27" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:G1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист8"/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="23" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+    </row>
+    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист5"/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист6"/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" customWidth="1"/>
+    <col min="8" max="9" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+    </row>
+    <row r="2" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AnalizPdvBundle/Resources/templateAnaliz/AnalizPDV_Out_INN.xlsx
+++ b/AnalizPdvBundle/Resources/templateAnaliz/AnalizPDV_Out_INN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5580" windowWidth="19200" windowHeight="10215"/>
+    <workbookView xWindow="0" yWindow="6510" windowWidth="19200" windowHeight="10215"/>
   </bookViews>
   <sheets>
     <sheet name="read me" sheetId="4" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
   <si>
     <t>месяц</t>
   </si>
@@ -110,21 +110,6 @@
   </si>
   <si>
     <t>Правильность  и полноту формирования ПДВ по налоговым обязательствам в разрезе ИНН .</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Проверка налоговых обязательств в разрезе ИНН. Суммы ПДВ по ИПН которые есть в ЕРПН но нет в  Реестре </t>
-  </si>
-  <si>
-    <t>Если по филиалу есть не нулевые суммы по столбцу "Сальдо ПДВ (ЕРПН-Реестр)", следовательно предприятие ошиблось в формировании налоговых обязательств. Для виявления НН по которым есть ошибки надо открыть данные ЕРПН отфильтровать документы по столбцу "ИНН клиента", периоду создания и номеру филиала</t>
-  </si>
-  <si>
-    <t>Если по филиалу есть не нулевые суммы по столбцу "Сальдо ПДВ (ЕРПН-Реестр)", следовательно предприятие ошиблось в формировании налоговых обязательств. Для виявления НН по которым есть ошибки надо открыть файл анализа Реестров "AnalizPDV_All month (номер месяца) year (номер года) numBranch (номер филиала)" в вкладке "Out_reestr&lt;&gt;edrpou" отфильтровать документы по столбцу "ИНН клиента".</t>
-  </si>
-  <si>
-    <t>Out_reestr&lt;&gt;erpn</t>
-  </si>
-  <si>
-    <t>Out_erpn&lt;&gt;reestr</t>
   </si>
   <si>
     <t xml:space="preserve">Что делать если что то отображается не верно </t>
@@ -150,15 +135,6 @@
     <t>По данным реестра (факт)</t>
   </si>
   <si>
-    <t>In_R=E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проверка налоговому кредиту в разрезе ИНН. Суммы ПДВ по ИПН которые есть и в ЕРПН и в Реестре </t>
-  </si>
-  <si>
-    <t>Правильность  и полноту формирования ПДВ по налоговому кредиту в разрезе ИНН .</t>
-  </si>
-  <si>
     <t>месяц реестра</t>
   </si>
   <si>
@@ -186,12 +162,6 @@
     <t>ПДВ по НН, грн</t>
   </si>
   <si>
-    <t xml:space="preserve">Проверка налогового кредите  в разрезе ИНН. Суммы ПДВ по ИПН которые есть и в ЕРПН и в Реестре. Документы с реестров по которым есть расхождения </t>
-  </si>
-  <si>
-    <t>In_R=E DocByR</t>
-  </si>
-  <si>
     <t>Номер НН</t>
   </si>
   <si>
@@ -216,15 +186,75 @@
     <t xml:space="preserve">Проверка налоговых обязательств в разрезе ИНН. Суммы ПДВ по ИПН которые есть в ЕРПН но нет в  Реестре. Документы с ЕРПН по которым есть расхождения </t>
   </si>
   <si>
+    <t xml:space="preserve">Суммы ПДВ по ИПН которые есть и в ЕРПН и в Реестре </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Суммы ПДВ по ИПН которые есть и в ЕРПН и в Реестре. Документы с реестров по которым есть расхождения </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поиск документов по которым произошло расхождение в Реестре филиалов </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Суммы ПДВ по ИПН которые есть и в ЕРПН и в Реестре. Документы с ЕРПН по которым есть расхождения </t>
+  </si>
+  <si>
+    <t>Поиск документов по которым произошло расхождение в ЕРПН</t>
+  </si>
+  <si>
+    <t>Суммы ПДВ по ИПН которые есть в  Реестре но нет в ЕРПН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Суммы ПДВ по ИПН которые есть в  Реестре но нет в ЕРПН. Документы с реестров по которым есть расхождения </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Суммы ПДВ по ИПН которые есть в ЕРПН но нет в  Реестре </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Суммы ПДВ по ИПН которые есть в ЕРПН но нет в  Реестре. Документы с ЕРПН по которым есть расхождения </t>
+  </si>
+  <si>
+    <t>Out_R=E</t>
+  </si>
+  <si>
+    <t>Out_R=E DocByR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При помощи фильтра по столбцу "ИНН клиента" отбираем список документов по которым в вкладке "Out_R=E" появлось расхождение </t>
+  </si>
+  <si>
+    <t>Out_R=E DocByE</t>
+  </si>
+  <si>
+    <t>Out_R&lt;&gt;E</t>
+  </si>
+  <si>
+    <t>Out_R&lt;&gt;E DocByR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При помощи фильтра по столбцу "ИНН клиента" отбираем список документов по которым в вкладке "Out_R&lt;&gt;E" появлось расхождение </t>
+  </si>
+  <si>
+    <t>Out_E&lt;&gt;R</t>
+  </si>
+  <si>
+    <t>Out_E&lt;&gt;R DocByE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При помощи фильтра по столбцу "ИНН клиента" отбираем список документов по которым в вкладке "Out_E&lt;&gt;R" появлось расхождение </t>
+  </si>
+  <si>
     <t>Имеют место ошибки с неверным указанием номера, даты создания и типа налоговых накладных (расчетов корректировки)
-Цель данного анализа сравнить право (данные ЕРПН) и факт (даннные Реестров) на налоговые обязательства в разрезе покупателей (ИНН)</t>
+Цель данного анализа - сравнить право (данные ЕРПН) и факт (даннные Реестров) на налоговые обязательства в разрезе покупателей (ИНН)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Документы, которые ошибочно включены в Реестры </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +300,24 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -461,15 +509,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -490,6 +529,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -772,11 +820,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,21 +835,21 @@
     <col min="4" max="4" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-    </row>
-    <row r="2" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+    </row>
+    <row r="2" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -819,117 +867,157 @@
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins left="0.35" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -944,7 +1032,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,38 +1045,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="A1" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="37" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
@@ -996,12 +1084,12 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="G3" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1038,45 +1126,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="A1" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="20" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1111,39 +1199,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="A1" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1172,18 +1260,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="27" t="s">
@@ -1194,8 +1282,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="27" t="s">
         <v>7</v>
       </c>
@@ -1231,45 +1319,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="A1" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="20" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1297,18 +1385,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="A1" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="27" t="s">
@@ -1319,8 +1407,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="27" t="s">
         <v>3</v>
       </c>
@@ -1360,39 +1448,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="A1" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
